--- a/EsD1/data/Calcolo Variabili - Copia.xlsx
+++ b/EsD1/data/Calcolo Variabili - Copia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossi\OneDrive\Documenti\GitHub\Lab3\EsD1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE965A64-FAF1-4914-B077-F08AFC3A46B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E878DB-FE4B-4867-90A8-472C953CCC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -486,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1017,9 +1017,15 @@
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3.78</v>
+      </c>
+      <c r="B11">
+        <v>0.5</v>
+      </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>3.364210060821609E-2</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
@@ -1067,9 +1073,15 @@
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0.95</v>
+      </c>
+      <c r="B12">
+        <v>0.5</v>
+      </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>1.6585937818927615E-2</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
